--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.34132193820895</v>
+        <v>0.2812876666666667</v>
       </c>
       <c r="H2">
-        <v>1.34132193820895</v>
+        <v>0.843863</v>
       </c>
       <c r="I2">
-        <v>0.5581442912275578</v>
+        <v>0.1007085471400275</v>
       </c>
       <c r="J2">
-        <v>0.5581442912275578</v>
+        <v>0.1007085471400275</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.09101355825878</v>
+        <v>2.127030666666667</v>
       </c>
       <c r="N2">
-        <v>2.09101355825878</v>
+        <v>6.381092000000001</v>
       </c>
       <c r="O2">
-        <v>0.9566088110667091</v>
+        <v>0.8897884408930886</v>
       </c>
       <c r="P2">
-        <v>0.9566088110667091</v>
+        <v>0.8897884408930888</v>
       </c>
       <c r="Q2">
-        <v>2.80472235878486</v>
+        <v>0.5983074931551111</v>
       </c>
       <c r="R2">
-        <v>2.80472235878486</v>
+        <v>5.384767438396</v>
       </c>
       <c r="S2">
-        <v>0.5339257468348652</v>
+        <v>0.08960930114433321</v>
       </c>
       <c r="T2">
-        <v>0.5339257468348652</v>
+        <v>0.08960930114433323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.34132193820895</v>
+        <v>0.2812876666666667</v>
       </c>
       <c r="H3">
-        <v>1.34132193820895</v>
+        <v>0.843863</v>
       </c>
       <c r="I3">
-        <v>0.5581442912275578</v>
+        <v>0.1007085471400275</v>
       </c>
       <c r="J3">
-        <v>0.5581442912275578</v>
+        <v>0.1007085471400275</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.094847092477964</v>
+        <v>0.1566736666666667</v>
       </c>
       <c r="N3">
-        <v>0.094847092477964</v>
+        <v>0.470021</v>
       </c>
       <c r="O3">
-        <v>0.04339118893329078</v>
+        <v>0.06554038913355431</v>
       </c>
       <c r="P3">
-        <v>0.04339118893329078</v>
+        <v>0.06554038913355432</v>
       </c>
       <c r="Q3">
-        <v>0.1272204859160262</v>
+        <v>0.04407037012477778</v>
       </c>
       <c r="R3">
-        <v>0.1272204859160262</v>
+        <v>0.396633331123</v>
       </c>
       <c r="S3">
-        <v>0.02421854439269263</v>
+        <v>0.006600477368632302</v>
       </c>
       <c r="T3">
-        <v>0.02421854439269263</v>
+        <v>0.006600477368632304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.452884002107937</v>
+        <v>0.2812876666666667</v>
       </c>
       <c r="H4">
-        <v>0.452884002107937</v>
+        <v>0.843863</v>
       </c>
       <c r="I4">
-        <v>0.1884518646599943</v>
+        <v>0.1007085471400275</v>
       </c>
       <c r="J4">
-        <v>0.1884518646599943</v>
+        <v>0.1007085471400275</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.09101355825878</v>
+        <v>0.106786</v>
       </c>
       <c r="N4">
-        <v>2.09101355825878</v>
+        <v>0.320358</v>
       </c>
       <c r="O4">
-        <v>0.9566088110667091</v>
+        <v>0.04467116997335693</v>
       </c>
       <c r="P4">
-        <v>0.9566088110667091</v>
+        <v>0.04467116997335693</v>
       </c>
       <c r="Q4">
-        <v>0.9469865887261941</v>
+        <v>0.03003758477266667</v>
       </c>
       <c r="R4">
-        <v>0.9469865887261941</v>
+        <v>0.270338262954</v>
       </c>
       <c r="S4">
-        <v>0.1802747141957015</v>
+        <v>0.004498768627061998</v>
       </c>
       <c r="T4">
-        <v>0.1802747141957015</v>
+        <v>0.004498768627061999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.452884002107937</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H5">
-        <v>0.452884002107937</v>
+        <v>4.244276</v>
       </c>
       <c r="I5">
-        <v>0.1884518646599943</v>
+        <v>0.5065216387272431</v>
       </c>
       <c r="J5">
-        <v>0.1884518646599943</v>
+        <v>0.506521638727243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.094847092477964</v>
+        <v>2.127030666666667</v>
       </c>
       <c r="N5">
-        <v>0.094847092477964</v>
+        <v>6.381092000000001</v>
       </c>
       <c r="O5">
-        <v>0.04339118893329078</v>
+        <v>0.8897884408930886</v>
       </c>
       <c r="P5">
-        <v>0.04339118893329078</v>
+        <v>0.8897884408930888</v>
       </c>
       <c r="Q5">
-        <v>0.04295473082972194</v>
+        <v>3.009235069932445</v>
       </c>
       <c r="R5">
-        <v>0.04295473082972194</v>
+        <v>27.083115629392</v>
       </c>
       <c r="S5">
-        <v>0.008177150464292756</v>
+        <v>0.4506970992017259</v>
       </c>
       <c r="T5">
-        <v>0.008177150464292756</v>
+        <v>0.450697099201726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.532323646752967</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H6">
-        <v>0.532323646752967</v>
+        <v>4.244276</v>
       </c>
       <c r="I6">
-        <v>0.2215078990785279</v>
+        <v>0.5065216387272431</v>
       </c>
       <c r="J6">
-        <v>0.2215078990785279</v>
+        <v>0.506521638727243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.09101355825878</v>
+        <v>0.1566736666666667</v>
       </c>
       <c r="N6">
-        <v>2.09101355825878</v>
+        <v>0.470021</v>
       </c>
       <c r="O6">
-        <v>0.9566088110667091</v>
+        <v>0.06554038913355431</v>
       </c>
       <c r="P6">
-        <v>0.9566088110667091</v>
+        <v>0.06554038913355432</v>
       </c>
       <c r="Q6">
-        <v>1.113095962742211</v>
+        <v>0.2216554277551111</v>
       </c>
       <c r="R6">
-        <v>1.113095962742211</v>
+        <v>1.994898849796</v>
       </c>
       <c r="S6">
-        <v>0.2118964079793952</v>
+        <v>0.03319762530674913</v>
       </c>
       <c r="T6">
-        <v>0.2118964079793952</v>
+        <v>0.03319762530674913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.532323646752967</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H7">
-        <v>0.532323646752967</v>
+        <v>4.244276</v>
       </c>
       <c r="I7">
-        <v>0.2215078990785279</v>
+        <v>0.5065216387272431</v>
       </c>
       <c r="J7">
-        <v>0.2215078990785279</v>
+        <v>0.506521638727243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.094847092477964</v>
+        <v>0.106786</v>
       </c>
       <c r="N7">
-        <v>0.094847092477964</v>
+        <v>0.320358</v>
       </c>
       <c r="O7">
-        <v>0.04339118893329078</v>
+        <v>0.04467116997335693</v>
       </c>
       <c r="P7">
-        <v>0.04339118893329078</v>
+        <v>0.04467116997335693</v>
       </c>
       <c r="Q7">
-        <v>0.0504893501517857</v>
+        <v>0.1510764189786667</v>
       </c>
       <c r="R7">
-        <v>0.0504893501517857</v>
+        <v>1.359687770808</v>
       </c>
       <c r="S7">
-        <v>0.009611491099132712</v>
+        <v>0.02262691421876797</v>
       </c>
       <c r="T7">
-        <v>0.009611491099132712</v>
+        <v>0.02262691421876796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.07665173949877579</v>
+        <v>0.4636856666666667</v>
       </c>
       <c r="H8">
-        <v>0.07665173949877579</v>
+        <v>1.391057</v>
       </c>
       <c r="I8">
-        <v>0.03189594503391992</v>
+        <v>0.1660119349455602</v>
       </c>
       <c r="J8">
-        <v>0.03189594503391992</v>
+        <v>0.1660119349455602</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.09101355825878</v>
+        <v>2.127030666666667</v>
       </c>
       <c r="N8">
-        <v>2.09101355825878</v>
+        <v>6.381092000000001</v>
       </c>
       <c r="O8">
-        <v>0.9566088110667091</v>
+        <v>0.8897884408930886</v>
       </c>
       <c r="P8">
-        <v>0.9566088110667091</v>
+        <v>0.8897884408930888</v>
       </c>
       <c r="Q8">
-        <v>0.1602798265560602</v>
+        <v>0.9862736326937778</v>
       </c>
       <c r="R8">
-        <v>0.1602798265560602</v>
+        <v>8.876462694244001</v>
       </c>
       <c r="S8">
-        <v>0.03051194205674725</v>
+        <v>0.1477155007648549</v>
       </c>
       <c r="T8">
-        <v>0.03051194205674725</v>
+        <v>0.1477155007648549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.07665173949877579</v>
+        <v>0.4636856666666667</v>
       </c>
       <c r="H9">
-        <v>0.07665173949877579</v>
+        <v>1.391057</v>
       </c>
       <c r="I9">
-        <v>0.03189594503391992</v>
+        <v>0.1660119349455602</v>
       </c>
       <c r="J9">
-        <v>0.03189594503391992</v>
+        <v>0.1660119349455602</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.094847092477964</v>
+        <v>0.1566736666666667</v>
       </c>
       <c r="N9">
-        <v>0.094847092477964</v>
+        <v>0.470021</v>
       </c>
       <c r="O9">
-        <v>0.04339118893329078</v>
+        <v>0.06554038913355431</v>
       </c>
       <c r="P9">
-        <v>0.04339118893329078</v>
+        <v>0.06554038913355432</v>
       </c>
       <c r="Q9">
-        <v>0.007270194624837193</v>
+        <v>0.07264733357744443</v>
       </c>
       <c r="R9">
-        <v>0.007270194624837193</v>
+        <v>0.6538260021969999</v>
       </c>
       <c r="S9">
-        <v>0.001384002977172677</v>
+        <v>0.01088048681714632</v>
       </c>
       <c r="T9">
-        <v>0.001384002977172677</v>
+        <v>0.01088048681714632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4636856666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.391057</v>
+      </c>
+      <c r="I10">
+        <v>0.1660119349455602</v>
+      </c>
+      <c r="J10">
+        <v>0.1660119349455602</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.106786</v>
+      </c>
+      <c r="N10">
+        <v>0.320358</v>
+      </c>
+      <c r="O10">
+        <v>0.04467116997335693</v>
+      </c>
+      <c r="P10">
+        <v>0.04467116997335693</v>
+      </c>
+      <c r="Q10">
+        <v>0.04951513760066667</v>
+      </c>
+      <c r="R10">
+        <v>0.445636238406</v>
+      </c>
+      <c r="S10">
+        <v>0.007415947363558993</v>
+      </c>
+      <c r="T10">
+        <v>0.007415947363558993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5500093333333335</v>
+      </c>
+      <c r="H11">
+        <v>1.650028</v>
+      </c>
+      <c r="I11">
+        <v>0.196918128440713</v>
+      </c>
+      <c r="J11">
+        <v>0.196918128440713</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.127030666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.381092000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8897884408930886</v>
+      </c>
+      <c r="P11">
+        <v>0.8897884408930888</v>
+      </c>
+      <c r="Q11">
+        <v>1.169886718952889</v>
+      </c>
+      <c r="R11">
+        <v>10.528980470576</v>
+      </c>
+      <c r="S11">
+        <v>0.175215474488847</v>
+      </c>
+      <c r="T11">
+        <v>0.175215474488847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5500093333333335</v>
+      </c>
+      <c r="H12">
+        <v>1.650028</v>
+      </c>
+      <c r="I12">
+        <v>0.196918128440713</v>
+      </c>
+      <c r="J12">
+        <v>0.196918128440713</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1566736666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.470021</v>
+      </c>
+      <c r="O12">
+        <v>0.06554038913355431</v>
+      </c>
+      <c r="P12">
+        <v>0.06554038913355432</v>
+      </c>
+      <c r="Q12">
+        <v>0.08617197895422224</v>
+      </c>
+      <c r="R12">
+        <v>0.775547810588</v>
+      </c>
+      <c r="S12">
+        <v>0.01290609076545556</v>
+      </c>
+      <c r="T12">
+        <v>0.01290609076545556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5500093333333335</v>
+      </c>
+      <c r="H13">
+        <v>1.650028</v>
+      </c>
+      <c r="I13">
+        <v>0.196918128440713</v>
+      </c>
+      <c r="J13">
+        <v>0.196918128440713</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.106786</v>
+      </c>
+      <c r="N13">
+        <v>0.320358</v>
+      </c>
+      <c r="O13">
+        <v>0.04467116997335693</v>
+      </c>
+      <c r="P13">
+        <v>0.04467116997335693</v>
+      </c>
+      <c r="Q13">
+        <v>0.05873329666933335</v>
+      </c>
+      <c r="R13">
+        <v>0.5285996700240001</v>
+      </c>
+      <c r="S13">
+        <v>0.00879656318641042</v>
+      </c>
+      <c r="T13">
+        <v>0.00879656318641042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.083345</v>
+      </c>
+      <c r="H14">
+        <v>0.250035</v>
+      </c>
+      <c r="I14">
+        <v>0.02983975074645622</v>
+      </c>
+      <c r="J14">
+        <v>0.02983975074645622</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.127030666666667</v>
+      </c>
+      <c r="N14">
+        <v>6.381092000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.8897884408930886</v>
+      </c>
+      <c r="P14">
+        <v>0.8897884408930888</v>
+      </c>
+      <c r="Q14">
+        <v>0.1772773709133333</v>
+      </c>
+      <c r="R14">
+        <v>1.59549633822</v>
+      </c>
+      <c r="S14">
+        <v>0.02655106529332766</v>
+      </c>
+      <c r="T14">
+        <v>0.02655106529332766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.083345</v>
+      </c>
+      <c r="H15">
+        <v>0.250035</v>
+      </c>
+      <c r="I15">
+        <v>0.02983975074645622</v>
+      </c>
+      <c r="J15">
+        <v>0.02983975074645622</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1566736666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.470021</v>
+      </c>
+      <c r="O15">
+        <v>0.06554038913355431</v>
+      </c>
+      <c r="P15">
+        <v>0.06554038913355432</v>
+      </c>
+      <c r="Q15">
+        <v>0.01305796674833333</v>
+      </c>
+      <c r="R15">
+        <v>0.117521700735</v>
+      </c>
+      <c r="S15">
+        <v>0.001955708875571008</v>
+      </c>
+      <c r="T15">
+        <v>0.001955708875571009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.083345</v>
+      </c>
+      <c r="H16">
+        <v>0.250035</v>
+      </c>
+      <c r="I16">
+        <v>0.02983975074645622</v>
+      </c>
+      <c r="J16">
+        <v>0.02983975074645622</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.106786</v>
+      </c>
+      <c r="N16">
+        <v>0.320358</v>
+      </c>
+      <c r="O16">
+        <v>0.04467116997335693</v>
+      </c>
+      <c r="P16">
+        <v>0.04467116997335693</v>
+      </c>
+      <c r="Q16">
+        <v>0.00890007917</v>
+      </c>
+      <c r="R16">
+        <v>0.08010071253000001</v>
+      </c>
+      <c r="S16">
+        <v>0.00133297657755755</v>
+      </c>
+      <c r="T16">
+        <v>0.00133297657755755</v>
       </c>
     </row>
   </sheetData>
